--- a/data/EIA/PETR/old/Table_9.4_Retail_Motor_Gasoline_and_On-Highway_Diesel_Fuel_Prices.xlsx
+++ b/data/EIA/PETR/old/Table_9.4_Retail_Motor_Gasoline_and_On-Highway_Diesel_Fuel_Prices.xlsx
@@ -21,13 +21,13 @@
     <t>U.S. Energy Information Administration</t>
   </si>
   <si>
-    <t>June 2021 Monthly Energy Review</t>
+    <t>December 2021 Monthly Energy Review</t>
   </si>
   <si>
-    <t>Release Date: June 24, 2021</t>
+    <t>Release Date: December 22, 2021</t>
   </si>
   <si>
-    <t>Next Update: July 27, 2021</t>
+    <t>Next Update: January 27, 2022</t>
   </si>
   <si>
     <t>Table 9.4 Retail Motor Gasoline and On-Highway Diesel Fuel Prices</t>
@@ -476,7 +476,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I593"/>
+  <dimension ref="A1:I599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A13" sqref="A13"/>
@@ -17429,6 +17429,180 @@
       </c>
       <c r="I593">
         <v>3.217</v>
+      </c>
+    </row>
+    <row r="594" spans="1:9">
+      <c r="A594" s="6">
+        <v>44348</v>
+      </c>
+      <c r="B594" t="s">
+        <v>16</v>
+      </c>
+      <c r="C594">
+        <v>3.154</v>
+      </c>
+      <c r="D594">
+        <v>3.802</v>
+      </c>
+      <c r="E594">
+        <v>3.245</v>
+      </c>
+      <c r="F594">
+        <v>2.964</v>
+      </c>
+      <c r="G594">
+        <v>3.281</v>
+      </c>
+      <c r="H594">
+        <v>3.064</v>
+      </c>
+      <c r="I594">
+        <v>3.287</v>
+      </c>
+    </row>
+    <row r="595" spans="1:9">
+      <c r="A595" s="6">
+        <v>44378</v>
+      </c>
+      <c r="B595" t="s">
+        <v>16</v>
+      </c>
+      <c r="C595">
+        <v>3.233</v>
+      </c>
+      <c r="D595">
+        <v>3.897</v>
+      </c>
+      <c r="E595">
+        <v>3.326</v>
+      </c>
+      <c r="F595">
+        <v>3.044</v>
+      </c>
+      <c r="G595">
+        <v>3.339</v>
+      </c>
+      <c r="H595">
+        <v>3.136</v>
+      </c>
+      <c r="I595">
+        <v>3.339</v>
+      </c>
+    </row>
+    <row r="596" spans="1:9">
+      <c r="A596" s="6">
+        <v>44409</v>
+      </c>
+      <c r="B596" t="s">
+        <v>16</v>
+      </c>
+      <c r="C596">
+        <v>3.255</v>
+      </c>
+      <c r="D596">
+        <v>3.938</v>
+      </c>
+      <c r="E596">
+        <v>3.351</v>
+      </c>
+      <c r="F596">
+        <v>3.062</v>
+      </c>
+      <c r="G596">
+        <v>3.368</v>
+      </c>
+      <c r="H596">
+        <v>3.158</v>
+      </c>
+      <c r="I596">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="597" spans="1:9">
+      <c r="A597" s="6">
+        <v>44440</v>
+      </c>
+      <c r="B597" t="s">
+        <v>16</v>
+      </c>
+      <c r="C597">
+        <v>3.265</v>
+      </c>
+      <c r="D597">
+        <v>3.945</v>
+      </c>
+      <c r="E597">
+        <v>3.361</v>
+      </c>
+      <c r="F597">
+        <v>3.081</v>
+      </c>
+      <c r="G597">
+        <v>3.382</v>
+      </c>
+      <c r="H597">
+        <v>3.175</v>
+      </c>
+      <c r="I597">
+        <v>3.384</v>
+      </c>
+    </row>
+    <row r="598" spans="1:9">
+      <c r="A598" s="6">
+        <v>44470</v>
+      </c>
+      <c r="B598" t="s">
+        <v>16</v>
+      </c>
+      <c r="C598">
+        <v>3.385</v>
+      </c>
+      <c r="D598">
+        <v>4.04</v>
+      </c>
+      <c r="E598">
+        <v>3.477</v>
+      </c>
+      <c r="F598">
+        <v>3.193</v>
+      </c>
+      <c r="G598">
+        <v>3.506</v>
+      </c>
+      <c r="H598">
+        <v>3.291</v>
+      </c>
+      <c r="I598">
+        <v>3.612</v>
+      </c>
+    </row>
+    <row r="599" spans="1:9">
+      <c r="A599" s="6">
+        <v>44501</v>
+      </c>
+      <c r="B599" t="s">
+        <v>16</v>
+      </c>
+      <c r="C599">
+        <v>3.482</v>
+      </c>
+      <c r="D599">
+        <v>4.148</v>
+      </c>
+      <c r="E599">
+        <v>3.576</v>
+      </c>
+      <c r="F599">
+        <v>3.275</v>
+      </c>
+      <c r="G599">
+        <v>3.659</v>
+      </c>
+      <c r="H599">
+        <v>3.395</v>
+      </c>
+      <c r="I599">
+        <v>3.727</v>
       </c>
     </row>
   </sheetData>
